--- a/results/弹幕情感-波峰波谷.xlsx
+++ b/results/弹幕情感-波峰波谷.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>弹幕情感/分</t>
@@ -446,222 +441,117 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>分钟</t>
+          <t>分</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>时钟时间</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>弹幕情感平滑</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>波峰</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>波谷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>情感均值</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6930478452880718</v>
+        <v>0.5638622637777522</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6930478452880718</v>
+        <v>27</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0:00:27</t>
+        </is>
       </c>
       <c r="E2" t="n">
+        <v>0.5599524724940598</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5599524724940598</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5889280040938079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4675804899200966</v>
+        <v>0.5155381933338621</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0:00:43</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5122040835936619</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.4675804899200966</v>
+      <c r="G3" t="n">
+        <v>0.5122040835936619</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6025672059837957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5457541449195329</v>
+        <v>0.601913783135733</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5457541449195329</v>
+        <v>70</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0:01:10</t>
+        </is>
       </c>
       <c r="E4" t="n">
+        <v>0.5805631493418389</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5805631493418389</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5840397634270112</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5840397634270112</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5947859376869991</v>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5947859376869991</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5498413534730543</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5498413534730543</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5258738547779866</v>
-      </c>
-      <c r="C8" t="n">
-        <v>44</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5258738547779866</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6050111459378072</v>
-      </c>
-      <c r="C9" t="n">
-        <v>53</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6050111459378072</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5862189873081828</v>
-      </c>
-      <c r="C10" t="n">
-        <v>59</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5862189873081828</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6059876451254982</v>
-      </c>
-      <c r="C11" t="n">
-        <v>64</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6059876451254982</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.6235769295620004</v>
-      </c>
-      <c r="C12" t="n">
-        <v>71</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6235769295620004</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5607646049802335</v>
-      </c>
-      <c r="C13" t="n">
-        <v>76</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5607646049802335</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+      <c r="H4" t="n">
+        <v>0.6078154414590849</v>
       </c>
     </row>
   </sheetData>
